--- a/medicine/Enfance/Alexis_Eymery/Alexis_Eymery.xlsx
+++ b/medicine/Enfance/Alexis_Eymery/Alexis_Eymery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexis Eymery, né le 26 février 1774 à Saintes et mort le 1er mai 1854 à Neuilly-sur-Seine est un écrivain et libraire-éditeur français, un des principaux éditeurs de livres d'éducation du XIXe siècle.
 </t>
@@ -511,15 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de Pierre Eymery et de Charlotte Massiou, Eymery monte, jeune encore, à Paris. D’abord employé au ministère de la Guerre, il se lance dans la librairie d’éducation après avoir perdu son emploi[1]. Le 2 mai 1809, il forme, en association, au libraire Pierre Blanchard, l’entreprise P. Blanchard et compagnie, qui devient, le 30 novembre 1811 la P. Blanchard et A. Eymery. L'association est dissoute officiellement le 4 mai 1812 et les deux associés se répartissent les locaux, A. Eymery conservant l'adresse du 30, rue Mazarine.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Pierre Eymery et de Charlotte Massiou, Eymery monte, jeune encore, à Paris. D’abord employé au ministère de la Guerre, il se lance dans la librairie d’éducation après avoir perdu son emploi. Le 2 mai 1809, il forme, en association, au libraire Pierre Blanchard, l’entreprise P. Blanchard et compagnie, qui devient, le 30 novembre 1811 la P. Blanchard et A. Eymery. L'association est dissoute officiellement le 4 mai 1812 et les deux associés se répartissent les locaux, A. Eymery conservant l'adresse du 30, rue Mazarine.
 Breveté libraire le 1er octobre 1812 (brevet renouvelé le 15 mars 1817), il est déclaré en faillite en février 1819. Il avait édité, le 24 juillet 1815, le Dictionnaire des girouettes de Charrin, Tastu et Proisy d’Eppe, qui recensait toutes les trahisons de ses contemporains. Le grand succès de cet ouvrage lui a valu d’être réédité dès la première année.
-Il crée alors, vers 1824, une nouvelle maison à Bruxelles qu'il fait gérer dès 1825 par Pierre-Denis-Charles Fruger[a] et André-Georges Brunet[b], auquel il cède son fond en 1827. L'entreprise devient alors la (A.) Eymery, Fruger et compagnie jusqu’en 1830, pour ne plus exister ensuite que sous le nom Fruger, Brunet et compagnie. Après avoir quitté sa librairie, en 1830, il se met à rédiger des ouvrages destinés à la jeunesse[2].
-Ayant commencé à écrire pour le théâtre dès 1801, il est l'auteur de nombreuses pièces de théâtre[3].
+Il crée alors, vers 1824, une nouvelle maison à Bruxelles qu'il fait gérer dès 1825 par Pierre-Denis-Charles Fruger[a] et André-Georges Brunet[b], auquel il cède son fond en 1827. L'entreprise devient alors la (A.) Eymery, Fruger et compagnie jusqu’en 1830, pour ne plus exister ensuite que sous le nom Fruger, Brunet et compagnie. Après avoir quitté sa librairie, en 1830, il se met à rédiger des ouvrages destinés à la jeunesse.
+Ayant commencé à écrire pour le théâtre dès 1801, il est l'auteur de nombreuses pièces de théâtre.
 Libraire au 15, quai Voltaire de 1834 à 1844, il dirige la collection de la Bibliothèque d'éducation fondée par sa fille Désirée Eymery en 1834.
-Pseudonymat
-Eymery a eu recours à de nombreux noms de plume : A.-E. de Saintes ; A. de Saintes ; A. E. Desaintes ; Amélie d'Avignon de Norew ; Baronne Amélie d'Avignon de Novew ; Amélie de Norew ; A. E. D. S. ; A. D. S. ; Eugénie de Talabot  ; Madame de Salvage ; René de Mont-Louis[4],[5].
 </t>
         </is>
       </c>
@@ -545,10 +557,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pseudonymat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eymery a eu recours à de nombreux noms de plume : A.-E. de Saintes ; A. de Saintes ; A. E. Desaintes ; Amélie d'Avignon de Norew ; Baronne Amélie d'Avignon de Novew ; Amélie de Norew ; A. E. D. S. ; A. D. S. ; Eugénie de Talabot  ; Madame de Salvage ; René de Mont-Louis,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alexis_Eymery</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexis_Eymery</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le Petit César ou la Famille des Pyrénées, drame en trois actes, 1801.
 Urbino et Juliana, mélo-drame en trois actes, 1802.
@@ -655,9 +706,43 @@
 Les Contes d’une mère ou Les récits moraux, posth., 1869.
 Adeline et Virginie : Les deux sœurs. - Les avantages de l’éducation, posth., 1877.
 Les Amis du jeune âge, posth., 1879.
-Les Aventures de deux jeunes colporteurs, posth. 1891.
-Périodiques publiés par Alexis Eymery
-Bibliothèque historique, ou Recueil de matériaux pour servir à l’histoire du temps, hebdomadaire, 1817-1820.
+Les Aventures de deux jeunes colporteurs, posth. 1891.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alexis_Eymery</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexis_Eymery</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Périodiques publiés par Alexis Eymery</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bibliothèque historique, ou Recueil de matériaux pour servir à l’histoire du temps, hebdomadaire, 1817-1820.
 Tablettes universelles, mensuel, 1820-1824.</t>
         </is>
       </c>
